--- a/AKB DB BOM.xlsx
+++ b/AKB DB BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\AKB-DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24DCEADC-DB82-4B5C-A99B-31E179194765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB10BF0F-ED2A-48EF-856F-315D3F583646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38205" yWindow="4455" windowWidth="10800" windowHeight="31800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AKB DB BOM" sheetId="1" r:id="rId1"/>
@@ -76,9 +76,6 @@
     <t>R1,R2</t>
   </si>
   <si>
-    <t>Resistor_SMD:R_0603_1608Metric</t>
-  </si>
-  <si>
     <t>U3</t>
   </si>
   <si>
@@ -97,13 +94,16 @@
     <t>C145956</t>
   </si>
   <si>
-    <t>C23186</t>
-  </si>
-  <si>
     <t>C2827654</t>
   </si>
   <si>
     <t>USBLC6-2SC6</t>
+  </si>
+  <si>
+    <t>Resistor_SMD:R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t>C25905</t>
   </si>
 </sst>
 </file>
@@ -958,7 +958,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1016,7 +1016,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1030,7 @@
         <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1041,24 +1041,24 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
